--- a/data/dataThongtinhanghoa_case7.xlsx
+++ b/data/dataThongtinhanghoa_case7.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="42">
   <si>
     <t>Soluong</t>
   </si>
@@ -83,6 +83,15 @@
     <t>Nồi cơm điện i9</t>
   </si>
   <si>
+    <t>Nồi cơm điện i10</t>
+  </si>
+  <si>
+    <t>Nồi cơm điện i11</t>
+  </si>
+  <si>
+    <t>Nồi cơm điện i12</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -117,6 +126,30 @@
   </si>
   <si>
     <t>100000</t>
+  </si>
+  <si>
+    <t>Quạt hơi nước panasonic 100u</t>
+  </si>
+  <si>
+    <t>Máy giặt casper100</t>
+  </si>
+  <si>
+    <t>Máy giặt casper200</t>
+  </si>
+  <si>
+    <t>Máy giặt casper300</t>
+  </si>
+  <si>
+    <t>Máy giặt casper400</t>
+  </si>
+  <si>
+    <t>Máy giặt casper500</t>
+  </si>
+  <si>
+    <t>Chiếc</t>
+  </si>
+  <si>
+    <t>Xoa</t>
   </si>
 </sst>
 </file>
@@ -436,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -452,7 +485,7 @@
     <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -471,8 +504,11 @@
       <c r="F1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -492,7 +528,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -512,7 +548,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -526,13 +562,13 @@
         <v>8</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -546,13 +582,13 @@
         <v>8</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -566,13 +602,13 @@
         <v>8</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -586,13 +622,13 @@
         <v>8</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -606,13 +642,13 @@
         <v>8</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -626,13 +662,13 @@
         <v>8</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -646,13 +682,13 @@
         <v>8</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -666,13 +702,13 @@
         <v>8</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -686,65 +722,191 @@
         <v>8</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="D13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
